--- a/Readme.xlsx
+++ b/Readme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\csl\HAND\Code_Sum\R\Biogeography_of_Amazon_forests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B904F859-E482-4D38-B64B-ED42376BA04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF78487-8B82-4D96-B8AB-EBD1B11E4163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9150" yWindow="2640" windowWidth="21600" windowHeight="12630" activeTab="1" xr2:uid="{2A9F9929-83E9-4755-BCAA-442F68953DA1}"/>
+    <workbookView xWindow="7065" yWindow="4425" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{2A9F9929-83E9-4755-BCAA-442F68953DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="102">
   <si>
     <t>Codes and data to run the main analyses and the main figures of the Nature paper (Tavares et al., 2023):</t>
   </si>
@@ -72,27 +72,6 @@
     <t xml:space="preserve">Data and R-code from 'Shuli Chen, Scott C Stark, Antonio Donato Nobre, Luz Adriana Cuartas, Diogo de Jesus Amore, Natalia Restrepo-Coupe, Marielle N. Smith, Rutuja Chitra-Tarak, Hongseok Ko, Bruce W Nelson, Scott R Saleska. DOI </t>
   </si>
   <si>
-    <t>Brando_NormalPAR2_wtdhandFULL3_GeoSegSteege_correctLocalMean9_50mRearrange_flood_droughtduration2_dsl2005.csv</t>
-  </si>
-  <si>
-    <t>BrandoGrid_NormalPAR2_HANDAnoFULL1_GeoSteege_correctLocalMeanRemoval9_60m04De_All_Recall3_SandDryWet2005_000.csv</t>
-  </si>
-  <si>
-    <t>BrandoGrid_NormalPAR2_HANDAnoFULL1_GeoSteege_correctLocalMeanRemoval9_60m04De_All_Recall3_SandDryWet2010_000.csv</t>
-  </si>
-  <si>
-    <t>BrandoGrid_NormalPAR2_HANDAnoFULL1_GeoSteege_correctLocalMeanRemoval9_60m04De_All_Recall3_SandDryWet2015_000.csv</t>
-  </si>
-  <si>
-    <t>BrandoGrid_NormalPAR2_HANDAnoFULL1_GeoSteege_correctLocalMeanRemoval9_60m04De_All_H_BiogeographyLandcoverSoilSand2005_000</t>
-  </si>
-  <si>
-    <t>BrandoGrid_NormalPAR2_HANDAnoFULL1_GeoSteege_correctLocalMeanRemoval9_60m04De_All_H_BiogeographyLandcoverSoilSand2010_000</t>
-  </si>
-  <si>
-    <t>BrandoGrid_NormalPAR2_HANDAnoFULL1_GeoSteege_correctLocalMeanRemoval9_60m04De_All_H_BiogeographyLandcoverSoilSand2015_000</t>
-  </si>
-  <si>
     <t>Brienen_RAINFOR_Efforts_HAND.csv</t>
   </si>
   <si>
@@ -100,18 +79,6 @@
   </si>
   <si>
     <t>Brienen_RAINFOR_Efforts.csv</t>
-  </si>
-  <si>
-    <t>1.Figure_2_2005_Drought_Responses</t>
-  </si>
-  <si>
-    <t>2.Figure_3_SouthernAmazon_Drought_Responses</t>
-  </si>
-  <si>
-    <t>3.Figure_4_EcotopeDroughtResponses</t>
-  </si>
-  <si>
-    <t>4.Figure_5_BiogeographyofAmazon</t>
   </si>
   <si>
     <t>Header</t>
@@ -166,9 +133,6 @@
     </r>
   </si>
   <si>
-    <t>File name: Brando_NormalPAR2_wtdhandFULL3_GeoSegSteege_correctLocalMean9_50mRearrange_flood_droughtduration2_dsl2005.csv</t>
-  </si>
-  <si>
     <t>EVI_anomaly</t>
   </si>
   <si>
@@ -226,9 +190,6 @@
     <t xml:space="preserve">Drought lentth </t>
   </si>
   <si>
-    <t>File name: BrandoGrid_NormalPAR2_HANDAnoFULL1_GeoSteege_correctLocalMeanRemoval9_60m04De_All_Recall3_SandDryWet2005_000.csv</t>
-  </si>
-  <si>
     <t>SoilFertility</t>
   </si>
   <si>
@@ -280,9 +241,6 @@
     <t>sand content in soil texture</t>
   </si>
   <si>
-    <t>File name: BrandoGrid_NormalPAR2_HANDAnoFULL1_GeoSteege_correctLocalMeanRemoval9_60m04De_All_H_BiogeographyLandcoverSoilSand2005_000.csv</t>
-  </si>
-  <si>
     <t xml:space="preserve">EVI anomaly calcuated for the drought </t>
   </si>
   <si>
@@ -374,6 +332,48 @@
   </si>
   <si>
     <t>File name: Brienen_RAINFOR_Efforts_HAND.csv</t>
+  </si>
+  <si>
+    <t>File name: Droughtof2005_EVI_Climate_WTD_simple.csv</t>
+  </si>
+  <si>
+    <t>File name:ThreeDroughts_EVI_Ecotope_Climate_04De.csv</t>
+  </si>
+  <si>
+    <t>File name: EcotopeFactors_04De.csv</t>
+  </si>
+  <si>
+    <t>Droughtof2005_EVI_Climate_WTD_simple.csv</t>
+  </si>
+  <si>
+    <t>SouthernAmazon_EVI_Climate_04De.csv</t>
+  </si>
+  <si>
+    <t>ThreeDroughts_EVI_Ecotope_Climate_04De.csv</t>
+  </si>
+  <si>
+    <t>EcotopeFactors_04De.csv</t>
+  </si>
+  <si>
+    <t>EcotopeFactors_TavaresHSM.csv</t>
+  </si>
+  <si>
+    <t>1.Figure_2_2005_Drought_Responses_SC_N.R</t>
+  </si>
+  <si>
+    <t>2.Figure_3_SouthernAmazon_Drought_Responses_SC_N.R</t>
+  </si>
+  <si>
+    <t>3.Figure_4_EcotopeDroughtResponses_SC_N.R</t>
+  </si>
+  <si>
+    <t>4.Figure_5_BiogeographyofAmazon_SC_N.R</t>
+  </si>
+  <si>
+    <t>6.GAM_AIC_ModelSelection_SC_N.R</t>
+  </si>
+  <si>
+    <t>5.DAG_related_code_SC_N.R</t>
   </si>
 </sst>
 </file>
@@ -541,13 +541,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -592,6 +585,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF4A3D31"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1024,7 +1024,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1032,32 +1032,38 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="43" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1069,16 +1075,12 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1 2" xfId="20" xr:uid="{6F1D1BE7-6014-4040-9A53-B6F50179B407}"/>
@@ -1436,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A628E4AF-4A49-4473-A481-64916863D57A}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1448,20 +1450,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="2" t="s">
@@ -1487,7 +1489,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="3"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1"/>
@@ -1495,7 +1497,7 @@
     </row>
     <row r="8" spans="1:4" ht="31.5">
       <c r="A8" s="3"/>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1"/>
@@ -1503,13 +1505,13 @@
     </row>
     <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15.75">
       <c r="A10" s="3"/>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1"/>
@@ -1517,7 +1519,7 @@
     </row>
     <row r="11" spans="1:4" ht="31.5">
       <c r="A11" s="3"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1"/>
@@ -1525,7 +1527,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75">
       <c r="A12" s="3"/>
-      <c r="B12" s="9"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
@@ -1545,67 +1547,62 @@
     </row>
     <row r="15" spans="1:4" ht="15.75">
       <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
+      <c r="B15" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="15.75">
       <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
+      <c r="B16" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:2" ht="15.75">
       <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
+      <c r="B17" s="26" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75">
       <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>14</v>
+      <c r="B18" s="26" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75">
       <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>15</v>
+      <c r="B19" s="26" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75">
       <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>16</v>
+      <c r="B20" s="26" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75">
       <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>17</v>
+      <c r="B21" s="26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75">
       <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>19</v>
+      <c r="B22" s="26" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75">
       <c r="A23" s="3"/>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="24" spans="1:2" ht="15.75">
       <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" ht="15.75">
       <c r="A25" s="3"/>
@@ -1625,26 +1622,37 @@
     </row>
     <row r="28" spans="1:2" ht="15.75">
       <c r="A28" s="3"/>
-      <c r="B28" s="5" t="s">
-        <v>21</v>
+      <c r="B28" s="27" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75">
       <c r="A29" s="3"/>
-      <c r="B29" s="5" t="s">
-        <v>22</v>
+      <c r="B29" s="27" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75">
       <c r="A30" s="3"/>
-      <c r="B30" s="5" t="s">
-        <v>23</v>
+      <c r="B30" s="27" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25" customHeight="1">
       <c r="A31" s="3"/>
-      <c r="B31" s="10" t="s">
-        <v>24</v>
+      <c r="B31" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="B32" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="15.75">
+      <c r="B33" s="27" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1660,8 +1668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D22480-C740-4CF1-BEC2-B966CED54919}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1672,742 +1680,746 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="B7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A16" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="B22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="11" t="s">
+      <c r="B23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="11" t="s">
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A37" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A40" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C40" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="11" t="s">
+      <c r="B44" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A50" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="25"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17.25">
+      <c r="A52" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="1:4" ht="17.25">
+      <c r="A53" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="11"/>
+    </row>
+    <row r="54" spans="1:4" ht="17.25">
+      <c r="A54" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="11"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A13" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A16" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="D55" s="11"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="11"/>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="11"/>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A58" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="25"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="B61" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="11"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="B62" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="15"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="13"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A37" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="26"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="13"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="13"/>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A40" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="13"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="13"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="13"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="13"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="13"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="13"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="13"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="16"/>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A50" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="26"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="17.25">
-      <c r="A52" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="12" t="s">
+      <c r="B63" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="13"/>
-    </row>
-    <row r="53" spans="1:4" ht="17.25">
-      <c r="A53" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D53" s="13"/>
-    </row>
-    <row r="54" spans="1:4" ht="17.25">
-      <c r="A54" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D54" s="13"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="13"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="13"/>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="13"/>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A58" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="26"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D61" s="13"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D62" s="17"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="13"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="11"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>88</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="18"/>
+        <v>74</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="16"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="13"/>
+        <v>75</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="11"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>90</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="11"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>91</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="13"/>
+        <v>77</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="11"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="11"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="13"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="11"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="11"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="13"/>
+      <c r="A69" s="9"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="11"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="11"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="13"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="11"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="11"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="13"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="11"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="11"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="13"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="11"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="11"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="13"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="11"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="13"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="11"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="11"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="13"/>
+      <c r="A75" s="9"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="11"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="11"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="13"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="11"/>
     </row>
     <row r="77" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A77" s="14"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="16"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
